--- a/문서/간트 차트.xlsx
+++ b/문서/간트 차트.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KYUNGS~1\DOWNLO~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyungsook\Desktop\쑥\2019 2학기\소프트웨어 설계\팀프로젝트\SD_2019_2_team7\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF529C6D-37E9-4678-8F5D-8AAA2EA013E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8B3805-DE6C-4A04-A57A-F73A88B14095}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A5335E2C-64F0-4936-B28B-08D34DEC03C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>요구분석</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -221,18 +221,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3-1) 로그인, 회원가입, 사용자 정보화면</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2) 검색화면 (여행지)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3-3) 검색결과 화면 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>세부 단계</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -262,6 +250,14 @@
   </si>
   <si>
     <t>11월 1주차 ~ 11월 4주차</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1) 검색화면 (여행지)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3-2) 검색결과 화면 </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -825,27 +821,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -912,52 +887,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="3" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1278,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9CE2A9-33F4-4BD6-830E-6BE33B2B69F5}">
-  <dimension ref="B3:X38"/>
+  <dimension ref="B3:X37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1300,42 +1296,42 @@
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="77" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="25"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="43" t="s">
+      <c r="H3" s="81"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="43" t="s">
+      <c r="K3" s="81"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="81"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="45" t="s">
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="84"/>
+      <c r="T3" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="U3" s="43"/>
-      <c r="V3" s="46"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82"/>
       <c r="W3" s="14"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.4">
       <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="78"/>
+      <c r="F4" s="40" t="s">
         <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1394,7 +1390,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>30</v>
@@ -1431,24 +1427,24 @@
       <c r="X5" s="7"/>
     </row>
     <row r="6" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="60" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="30"/>
       <c r="E6" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="48"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="54"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="10"/>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -1461,8 +1457,8 @@
       <c r="X6" s="7"/>
     </row>
     <row r="7" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="41"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="61" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="30"/>
@@ -1470,7 +1466,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="56"/>
+      <c r="G7" s="49"/>
       <c r="H7" s="7"/>
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
@@ -1490,17 +1486,17 @@
       <c r="X7" s="7"/>
     </row>
     <row r="8" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="41"/>
-      <c r="C8" s="68" t="s">
+      <c r="B8" s="75"/>
+      <c r="C8" s="61" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="49"/>
+      <c r="F8" s="42"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="56"/>
+      <c r="H8" s="49"/>
       <c r="I8" s="10"/>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -1519,8 +1515,8 @@
       <c r="X8" s="7"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="41"/>
-      <c r="C9" s="69" t="s">
+      <c r="B9" s="75"/>
+      <c r="C9" s="79" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -1529,11 +1525,11 @@
       <c r="E9" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="49"/>
+      <c r="F9" s="42"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="58"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -1550,20 +1546,20 @@
       <c r="X9" s="7"/>
     </row>
     <row r="10" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="41"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="30" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="49"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="4"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="56"/>
+      <c r="K10" s="49"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="4"/>
@@ -1579,22 +1575,22 @@
       <c r="X10" s="7"/>
     </row>
     <row r="11" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="41"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="30" t="s">
         <v>38</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="49"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="4"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="78"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="67"/>
       <c r="N11" s="4"/>
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
@@ -1608,46 +1604,46 @@
       <c r="X11" s="7"/>
     </row>
     <row r="12" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="60" t="s">
         <v>1</v>
       </c>
       <c r="D12" s="31"/>
       <c r="E12" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="48"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="3"/>
       <c r="J12" s="20"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="59"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="52"/>
       <c r="R12" s="20"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="79"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="68"/>
       <c r="U12" s="20"/>
       <c r="V12" s="3"/>
       <c r="W12" s="7"/>
       <c r="X12" s="7"/>
     </row>
     <row r="13" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="41"/>
-      <c r="C13" s="68" t="s">
+      <c r="B13" s="75"/>
+      <c r="C13" s="61" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="30"/>
       <c r="E13" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="49"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="4"/>
@@ -1655,8 +1651,8 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="51"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
@@ -1668,8 +1664,8 @@
       <c r="X13" s="7"/>
     </row>
     <row r="14" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="41"/>
-      <c r="C14" s="69" t="s">
+      <c r="B14" s="75"/>
+      <c r="C14" s="79" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="30" t="s">
@@ -1678,7 +1674,7 @@
       <c r="E14" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="49"/>
+      <c r="F14" s="42"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="4"/>
@@ -1688,7 +1684,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="4"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="56"/>
+      <c r="P14" s="49"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="10"/>
@@ -1699,15 +1695,15 @@
       <c r="X14" s="7"/>
     </row>
     <row r="15" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="41"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="30" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="49"/>
+      <c r="F15" s="42"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="4"/>
@@ -1717,7 +1713,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="4"/>
       <c r="O15" s="7"/>
-      <c r="P15" s="56"/>
+      <c r="P15" s="49"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
       <c r="S15" s="10"/>
@@ -1728,17 +1724,17 @@
       <c r="X15" s="7"/>
     </row>
     <row r="16" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="41"/>
-      <c r="C16" s="69" t="s">
+      <c r="B16" s="75"/>
+      <c r="C16" s="79" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="49"/>
+      <c r="F16" s="42"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
       <c r="I16" s="4"/>
@@ -1749,7 +1745,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="56"/>
+      <c r="Q16" s="49"/>
       <c r="R16" s="7"/>
       <c r="S16" s="10"/>
       <c r="T16" s="16"/>
@@ -1759,102 +1755,102 @@
       <c r="X16" s="7"/>
     </row>
     <row r="17" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="41"/>
-      <c r="C17" s="69"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="83"/>
       <c r="D17" s="30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="4"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="7"/>
       <c r="X17" s="7"/>
     </row>
-    <row r="18" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="50"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="75"/>
+    <row r="18" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="63" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="41"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="7"/>
       <c r="X18" s="7"/>
     </row>
     <row r="19" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="73" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="74" t="s">
+      <c r="B19" s="75"/>
+      <c r="C19" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
-      <c r="S19" s="52"/>
-      <c r="T19" s="52"/>
-      <c r="U19" s="52"/>
-      <c r="V19" s="59"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="58"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="53"/>
       <c r="W19" s="7"/>
       <c r="X19" s="7"/>
     </row>
-    <row r="20" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="41"/>
-      <c r="C20" s="49" t="s">
-        <v>54</v>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="B20" s="75"/>
+      <c r="C20" s="42" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="84" t="s">
-        <v>40</v>
+      <c r="E20" s="73" t="s">
+        <v>52</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="7"/>
@@ -1865,25 +1861,23 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="54"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B21" s="41"/>
-      <c r="C21" s="49" t="s">
-        <v>51</v>
+      <c r="B21" s="75"/>
+      <c r="C21" s="42" t="s">
+        <v>49</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21" s="84" t="s">
-        <v>55</v>
+      <c r="E21" s="73" t="s">
+        <v>53</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="7"/>
@@ -1894,23 +1888,23 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="4"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="60"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="61"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="53"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B22" s="41"/>
-      <c r="C22" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="84" t="s">
-        <v>56</v>
+      <c r="B22" s="76"/>
+      <c r="C22" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="64"/>
+      <c r="E22" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="7"/>
@@ -1921,87 +1915,60 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="4"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="80"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="60"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="81"/>
-      <c r="U23" s="81"/>
-      <c r="V23" s="83"/>
-    </row>
-    <row r="24" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="27" t="s">
+      <c r="O22" s="57"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="71"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="72"/>
+    </row>
+    <row r="23" spans="2:24" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="34" t="s">
+      <c r="C23" s="28"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="63"/>
-      <c r="T24" s="52"/>
-      <c r="U24" s="52"/>
-      <c r="V24" s="59"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.4">
-      <c r="L28" s="8"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="52"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.4">
+      <c r="L27" s="8"/>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="13:13" x14ac:dyDescent="0.4">
-      <c r="M37" s="29"/>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.4">
-      <c r="M38" s="7"/>
+      <c r="M37" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B19:B23"/>
+    <mergeCell ref="B18:B22"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="T3:V3"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B12:B17"/>
     <mergeCell ref="J3:N3"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="O3:S3"/>
